--- a/data-raw/ITNS-Ch03-Excercises data - descriptives-gdc.xlsx
+++ b/data-raw/ITNS-Ch03-Excercises data - descriptives-gdc.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="student_survey_one Ex 3, 4" sheetId="13" r:id="rId1"/>
-    <sheet name="religious belief Ex 5" sheetId="14" r:id="rId2"/>
-    <sheet name="student_survey_two" sheetId="1" r:id="rId3"/>
+    <sheet name="college_survey_1" sheetId="13" r:id="rId1"/>
+    <sheet name="religious_belief" sheetId="14" r:id="rId2"/>
+    <sheet name="college_survey_2" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'religious belief Ex 5'!$F$1:$I$214</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'student_survey_one Ex 3, 4'!$A$1:$W$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">college_survey_1!$A$1:$W$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">religious_belief!$F$1:$I$214</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1635,14 +1635,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1818,15 +1818,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1834,7 +1834,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1845,14 +1845,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1861,40 +1861,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2048,7 +2014,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2058,16 +2024,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color indexed="9"/>
+        <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="49"/>
-          <bgColor indexed="49"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2085,12 +2045,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="27"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2232,6 +2186,29 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="44"/>
@@ -2301,10 +2278,33 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="49"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -2355,7 +2355,225 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2390,228 +2608,15 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4936,7 +4941,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:W244" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:W244" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:W244"/>
   <sortState ref="A2:W244">
     <sortCondition descending="1" ref="W1:W244"/>
@@ -4945,26 +4950,26 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Gender"/>
     <tableColumn id="38" name="Gender_Code"/>
-    <tableColumn id="3" name="Age" dataDxfId="43"/>
+    <tableColumn id="3" name="Age" dataDxfId="45"/>
     <tableColumn id="4" name="Shool_Year"/>
-    <tableColumn id="39" name="School_Year_Code" dataDxfId="47"/>
-    <tableColumn id="41" name="Transfer" dataDxfId="46"/>
-    <tableColumn id="40" name="Transfer_Code" dataDxfId="45"/>
+    <tableColumn id="39" name="School_Year_Code" dataDxfId="44"/>
+    <tableColumn id="41" name="Transfer" dataDxfId="43"/>
+    <tableColumn id="40" name="Transfer_Code" dataDxfId="42"/>
     <tableColumn id="6" name="Student_Athlete"/>
-    <tableColumn id="42" name="Student_Athlete_Code" dataDxfId="44"/>
+    <tableColumn id="42" name="Student_Athlete_Code" dataDxfId="41"/>
     <tableColumn id="7" name="Wealth_SR"/>
-    <tableColumn id="8" name="GPA" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="GPA" dataDxfId="40" dataCellStyle="Comma"/>
     <tableColumn id="9" name="ACT"/>
-    <tableColumn id="10" name="Subjective_Well_Being" dataDxfId="41" dataCellStyle="Comma"/>
-    <tableColumn id="11" name="Positive_Affect" dataDxfId="40" dataCellStyle="Comma"/>
-    <tableColumn id="12" name="Negative_Affect" dataDxfId="39" dataCellStyle="Comma"/>
-    <tableColumn id="13" name="Relationship_Confidence" dataDxfId="38" dataCellStyle="Comma"/>
-    <tableColumn id="14" name="Exercise" dataDxfId="37" dataCellStyle="Comma"/>
-    <tableColumn id="15" name="Academic_Motivation_Intrinsic" dataDxfId="36" dataCellStyle="Comma"/>
-    <tableColumn id="16" name="Academic_Motivation_Extrinsic" dataDxfId="35" dataCellStyle="Comma"/>
-    <tableColumn id="17" name="Academic_Motivation_Amotivation" dataDxfId="34" dataCellStyle="Comma"/>
-    <tableColumn id="18" name="Intelligence_Value" dataDxfId="33" dataCellStyle="Comma"/>
-    <tableColumn id="36" name="Raven_Score" dataDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="10" name="Subjective_Well_Being" dataDxfId="39" dataCellStyle="Comma"/>
+    <tableColumn id="11" name="Positive_Affect" dataDxfId="38" dataCellStyle="Comma"/>
+    <tableColumn id="12" name="Negative_Affect" dataDxfId="37" dataCellStyle="Comma"/>
+    <tableColumn id="13" name="Relationship_Confidence" dataDxfId="36" dataCellStyle="Comma"/>
+    <tableColumn id="14" name="Exercise" dataDxfId="35" dataCellStyle="Comma"/>
+    <tableColumn id="15" name="Academic_Motivation_Intrinsic" dataDxfId="34" dataCellStyle="Comma"/>
+    <tableColumn id="16" name="Academic_Motivation_Extrinsic" dataDxfId="33" dataCellStyle="Comma"/>
+    <tableColumn id="17" name="Academic_Motivation_Amotivation" dataDxfId="32" dataCellStyle="Comma"/>
+    <tableColumn id="18" name="Intelligence_Value" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="36" name="Raven_Score" dataDxfId="30" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4980,10 +4985,10 @@
     <tableColumn id="1" name="Student"/>
     <tableColumn id="2" name="ACT" dataDxfId="29"/>
     <tableColumn id="3" name="(Xi-M)" dataDxfId="28">
-      <calculatedColumnFormula>('student_survey_one Ex 3, 4'!$AL6-$AL$20)</calculatedColumnFormula>
+      <calculatedColumnFormula>(college_survey_1!$AL6-$AL$20)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="(Xi-M)2" dataDxfId="27">
-      <calculatedColumnFormula>'student_survey_one Ex 3, 4'!$AM6*'student_survey_one Ex 3, 4'!$AM6</calculatedColumnFormula>
+      <calculatedColumnFormula>college_survey_1!$AM6*college_survey_1!$AM6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4991,19 +4996,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="AK25:AN36" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="AK25:AN36" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="AK25:AN36"/>
   <sortState ref="AK26:AN36">
     <sortCondition ref="AL25:AL36"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Student"/>
-    <tableColumn id="2" name="Wealth_SR" dataDxfId="26"/>
-    <tableColumn id="3" name="(Xi-M)" dataDxfId="25">
-      <calculatedColumnFormula>('student_survey_one Ex 3, 4'!$AL26-$AL$40)</calculatedColumnFormula>
+    <tableColumn id="2" name="Wealth_SR" dataDxfId="25"/>
+    <tableColumn id="3" name="(Xi-M)" dataDxfId="24">
+      <calculatedColumnFormula>(college_survey_1!$AL26-$AL$40)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="(Xi-M)2" dataDxfId="24">
-      <calculatedColumnFormula>'student_survey_one Ex 3, 4'!$AM26*'student_survey_one Ex 3, 4'!$AM26</calculatedColumnFormula>
+    <tableColumn id="4" name="(Xi-M)2" dataDxfId="23">
+      <calculatedColumnFormula>college_survey_1!$AM26*college_survey_1!$AM26</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5027,39 +5032,39 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="F1:I214" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16" headerRowBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="F1:I214" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" totalsRowBorderDxfId="19">
   <autoFilter ref="F1:I214"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Response_ID" dataDxfId="20"/>
-    <tableColumn id="2" name="Condition" dataDxfId="19"/>
-    <tableColumn id="3" name="Belief_in_Gd" dataDxfId="18"/>
-    <tableColumn id="4" name="Age" dataDxfId="17"/>
+    <tableColumn id="1" name="Response_ID" dataDxfId="18"/>
+    <tableColumn id="2" name="Condition" dataDxfId="17"/>
+    <tableColumn id="3" name="Belief_in_Gd" dataDxfId="16"/>
+    <tableColumn id="4" name="Age" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q139" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q139" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:Q139"/>
   <tableColumns count="17">
     <tableColumn id="20" name="ID"/>
-    <tableColumn id="21" name="Gender" dataDxfId="14"/>
-    <tableColumn id="24" name="Gender_Code" dataDxfId="13"/>
+    <tableColumn id="21" name="Gender" dataDxfId="12"/>
+    <tableColumn id="24" name="Gender_Code" dataDxfId="11"/>
     <tableColumn id="2" name="Age"/>
     <tableColumn id="3" name="Wealth_SR"/>
-    <tableColumn id="22" name="School_Year" dataDxfId="12"/>
+    <tableColumn id="22" name="School_Year" dataDxfId="10"/>
     <tableColumn id="5" name="School_Year_Code"/>
-    <tableColumn id="23" name="Transfer" dataDxfId="11"/>
-    <tableColumn id="25" name="Transfer_Code" dataDxfId="10"/>
-    <tableColumn id="7" name="GPA" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="Subjective_Well_Being" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="9" name="Positive_Affect" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="10" name="Negative_Affect" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="13" name="Academic_Engagement" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="14" name="Religious_Meaning" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="15" name="Health" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="68" name="Emotion_Recognition" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="23" name="Transfer" dataDxfId="9"/>
+    <tableColumn id="25" name="Transfer_Code" dataDxfId="8"/>
+    <tableColumn id="7" name="GPA" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="Subjective_Well_Being" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="9" name="Positive_Affect" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="10" name="Negative_Affect" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="13" name="Academic_Engagement" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="14" name="Religious_Meaning" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="15" name="Health" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="68" name="Emotion_Recognition" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5327,14 +5332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR245"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.7109375" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
@@ -5351,7 +5356,7 @@
     <col min="40" max="40" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5422,7 +5427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21466926</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21466578</v>
       </c>
@@ -5561,7 +5566,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21421645</v>
       </c>
@@ -5632,7 +5637,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="18.75">
+    <row r="5" spans="1:42" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>21450687</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21466410</v>
       </c>
@@ -5792,11 +5797,11 @@
         <v>17</v>
       </c>
       <c r="AM6" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL6-$AL$20)</f>
+        <f>(college_survey_1!$AL6-$AL$20)</f>
         <v>-7.0909090909090899</v>
       </c>
       <c r="AN6" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM6*'student_survey_one Ex 3, 4'!$AM6</f>
+        <f>college_survey_1!$AM6*college_survey_1!$AM6</f>
         <v>50.280991735537178</v>
       </c>
       <c r="AO6" s="11"/>
@@ -5804,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21496229</v>
       </c>
@@ -5881,11 +5886,11 @@
         <v>18</v>
       </c>
       <c r="AM7" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL7-$AL$20)</f>
+        <f>(college_survey_1!$AL7-$AL$20)</f>
         <v>-6.0909090909090899</v>
       </c>
       <c r="AN7" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM7*'student_survey_one Ex 3, 4'!$AM7</f>
+        <f>college_survey_1!$AM7*college_survey_1!$AM7</f>
         <v>37.099173553718998</v>
       </c>
       <c r="AO7" s="11"/>
@@ -5893,7 +5898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21466341</v>
       </c>
@@ -5970,11 +5975,11 @@
         <v>20</v>
       </c>
       <c r="AM8" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL8-$AL$20)</f>
+        <f>(college_survey_1!$AL8-$AL$20)</f>
         <v>-4.0909090909090899</v>
       </c>
       <c r="AN8" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM8*'student_survey_one Ex 3, 4'!$AM8</f>
+        <f>college_survey_1!$AM8*college_survey_1!$AM8</f>
         <v>16.735537190082638</v>
       </c>
       <c r="AO8" s="11"/>
@@ -5982,7 +5987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21473012</v>
       </c>
@@ -6056,11 +6061,11 @@
         <v>21</v>
       </c>
       <c r="AM9" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL9-$AL$20)</f>
+        <f>(college_survey_1!$AL9-$AL$20)</f>
         <v>-3.0909090909090899</v>
       </c>
       <c r="AN9" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM9*'student_survey_one Ex 3, 4'!$AM9</f>
+        <f>college_survey_1!$AM9*college_survey_1!$AM9</f>
         <v>9.5537190082644567</v>
       </c>
       <c r="AO9" s="11"/>
@@ -6068,7 +6073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21463897</v>
       </c>
@@ -6145,11 +6150,11 @@
         <v>24</v>
       </c>
       <c r="AM10" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL10-$AL$20)</f>
+        <f>(college_survey_1!$AL10-$AL$20)</f>
         <v>-9.090909090908994E-2</v>
       </c>
       <c r="AN10" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM10*'student_survey_one Ex 3, 4'!$AM10</f>
+        <f>college_survey_1!$AM10*college_survey_1!$AM10</f>
         <v>8.2644628099171787E-3</v>
       </c>
       <c r="AO10" s="11"/>
@@ -6157,7 +6162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21481343</v>
       </c>
@@ -6234,11 +6239,11 @@
         <v>24</v>
       </c>
       <c r="AM11" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL11-$AL$20)</f>
+        <f>(college_survey_1!$AL11-$AL$20)</f>
         <v>-9.090909090908994E-2</v>
       </c>
       <c r="AN11" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM11*'student_survey_one Ex 3, 4'!$AM11</f>
+        <f>college_survey_1!$AM11*college_survey_1!$AM11</f>
         <v>8.2644628099171787E-3</v>
       </c>
       <c r="AO11" s="11"/>
@@ -6246,7 +6251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21416834</v>
       </c>
@@ -6323,11 +6328,11 @@
         <v>26</v>
       </c>
       <c r="AM12" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL12-$AL$20)</f>
+        <f>(college_survey_1!$AL12-$AL$20)</f>
         <v>1.9090909090909101</v>
       </c>
       <c r="AN12" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM12*'student_survey_one Ex 3, 4'!$AM12</f>
+        <f>college_survey_1!$AM12*college_survey_1!$AM12</f>
         <v>3.6446280991735573</v>
       </c>
       <c r="AO12" s="11"/>
@@ -6335,7 +6340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21418517</v>
       </c>
@@ -6412,11 +6417,11 @@
         <v>27</v>
       </c>
       <c r="AM13" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL13-$AL$20)</f>
+        <f>(college_survey_1!$AL13-$AL$20)</f>
         <v>2.9090909090909101</v>
       </c>
       <c r="AN13" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM13*'student_survey_one Ex 3, 4'!$AM13</f>
+        <f>college_survey_1!$AM13*college_survey_1!$AM13</f>
         <v>8.4628099173553775</v>
       </c>
       <c r="AO13" s="11"/>
@@ -6424,7 +6429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21426968</v>
       </c>
@@ -6501,11 +6506,11 @@
         <v>28</v>
       </c>
       <c r="AM14" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL14-$AL$20)</f>
+        <f>(college_survey_1!$AL14-$AL$20)</f>
         <v>3.9090909090909101</v>
       </c>
       <c r="AN14" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM14*'student_survey_one Ex 3, 4'!$AM14</f>
+        <f>college_survey_1!$AM14*college_survey_1!$AM14</f>
         <v>15.280991735537198</v>
       </c>
       <c r="AO14" s="11"/>
@@ -6513,7 +6518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21478908</v>
       </c>
@@ -6587,11 +6592,11 @@
         <v>29</v>
       </c>
       <c r="AM15" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL15-$AL$20)</f>
+        <f>(college_survey_1!$AL15-$AL$20)</f>
         <v>4.9090909090909101</v>
       </c>
       <c r="AN15" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM15*'student_survey_one Ex 3, 4'!$AM15</f>
+        <f>college_survey_1!$AM15*college_survey_1!$AM15</f>
         <v>24.099173553719019</v>
       </c>
       <c r="AO15" s="11"/>
@@ -6599,7 +6604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21466657</v>
       </c>
@@ -6673,11 +6678,11 @@
         <v>31</v>
       </c>
       <c r="AM16" s="12">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL16-$AL$20)</f>
+        <f>(college_survey_1!$AL16-$AL$20)</f>
         <v>6.9090909090909101</v>
       </c>
       <c r="AN16" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM16*'student_survey_one Ex 3, 4'!$AM16</f>
+        <f>college_survey_1!$AM16*college_survey_1!$AM16</f>
         <v>47.73553719008266</v>
       </c>
       <c r="AO16" s="11"/>
@@ -6685,7 +6690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21468106</v>
       </c>
@@ -6756,7 +6761,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21468139</v>
       </c>
@@ -6830,16 +6835,16 @@
         <v>460</v>
       </c>
       <c r="AL18" s="11">
-        <f ca="1">SUM('student_survey_one Ex 3, 4'!$AL$6:$AL$16)</f>
+        <f>SUM(college_survey_1!$AL$6:$AL$16)</f>
         <v>265</v>
       </c>
       <c r="AM18" s="12"/>
       <c r="AN18" s="11">
-        <f ca="1">AVERAGE('student_survey_one Ex 3, 4'!$AN$6:$AN$16)</f>
+        <f>AVERAGE(college_survey_1!$AN$6:$AN$16)</f>
         <v>19.355371900826444</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21412291</v>
       </c>
@@ -6910,15 +6915,15 @@
         <v>462</v>
       </c>
       <c r="AL19" s="11">
-        <f ca="1">COUNT('student_survey_one Ex 3, 4'!$AL$6:$AL$16)</f>
+        <f>COUNT(college_survey_1!$AL$6:$AL$16)</f>
         <v>11</v>
       </c>
       <c r="AN19" s="11">
-        <f ca="1">COUNT('student_survey_one Ex 3, 4'!$AN$6:$AN$16)-1</f>
+        <f>COUNT(college_survey_1!$AN$6:$AN$16)-1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="17.25">
+    <row r="20" spans="1:44" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21467182</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21405085</v>
       </c>
@@ -7081,7 +7086,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21466414</v>
       </c>
@@ -7152,7 +7157,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21466428</v>
       </c>
@@ -7223,7 +7228,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21469059</v>
       </c>
@@ -7291,7 +7296,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="18.75">
+    <row r="25" spans="1:44" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>21442672</v>
       </c>
@@ -7381,7 +7386,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21466592</v>
       </c>
@@ -7458,11 +7463,11 @@
         <v>1</v>
       </c>
       <c r="AM26" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL26-$AL$40)</f>
+        <f>(college_survey_1!$AL26-$AL$40)</f>
         <v>-1.8181818181818183</v>
       </c>
       <c r="AN26" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM26*'student_survey_one Ex 3, 4'!$AM26</f>
+        <f>college_survey_1!$AM26*college_survey_1!$AM26</f>
         <v>3.3057851239669427</v>
       </c>
       <c r="AO26" s="20"/>
@@ -7475,7 +7480,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21460280</v>
       </c>
@@ -7552,11 +7557,11 @@
         <v>1</v>
       </c>
       <c r="AM27" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL27-$AL$40)</f>
+        <f>(college_survey_1!$AL27-$AL$40)</f>
         <v>-1.8181818181818183</v>
       </c>
       <c r="AN27" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM27*'student_survey_one Ex 3, 4'!$AM27</f>
+        <f>college_survey_1!$AM27*college_survey_1!$AM27</f>
         <v>3.3057851239669427</v>
       </c>
       <c r="AO27" s="20"/>
@@ -7569,7 +7574,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21442069</v>
       </c>
@@ -7646,11 +7651,11 @@
         <v>2</v>
       </c>
       <c r="AM28" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL28-$AL$40)</f>
+        <f>(college_survey_1!$AL28-$AL$40)</f>
         <v>-0.81818181818181834</v>
       </c>
       <c r="AN28" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM28*'student_survey_one Ex 3, 4'!$AM28</f>
+        <f>college_survey_1!$AM28*college_survey_1!$AM28</f>
         <v>0.669421487603306</v>
       </c>
       <c r="AO28" s="20"/>
@@ -7663,7 +7668,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21396986</v>
       </c>
@@ -7740,11 +7745,11 @@
         <v>2</v>
       </c>
       <c r="AM29" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL29-$AL$40)</f>
+        <f>(college_survey_1!$AL29-$AL$40)</f>
         <v>-0.81818181818181834</v>
       </c>
       <c r="AN29" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM29*'student_survey_one Ex 3, 4'!$AM29</f>
+        <f>college_survey_1!$AM29*college_survey_1!$AM29</f>
         <v>0.669421487603306</v>
       </c>
       <c r="AO29" s="20"/>
@@ -7757,7 +7762,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21422686</v>
       </c>
@@ -7831,11 +7836,11 @@
         <v>3</v>
       </c>
       <c r="AM30" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL30-$AL$40)</f>
+        <f>(college_survey_1!$AL30-$AL$40)</f>
         <v>0.18181818181818166</v>
       </c>
       <c r="AN30" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM30*'student_survey_one Ex 3, 4'!$AM30</f>
+        <f>college_survey_1!$AM30*college_survey_1!$AM30</f>
         <v>3.305785123966936E-2</v>
       </c>
       <c r="AO30" s="20"/>
@@ -7848,7 +7853,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21449550</v>
       </c>
@@ -7925,11 +7930,11 @@
         <v>3</v>
       </c>
       <c r="AM31" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL31-$AL$40)</f>
+        <f>(college_survey_1!$AL31-$AL$40)</f>
         <v>0.18181818181818166</v>
       </c>
       <c r="AN31" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM31*'student_survey_one Ex 3, 4'!$AM31</f>
+        <f>college_survey_1!$AM31*college_survey_1!$AM31</f>
         <v>3.305785123966936E-2</v>
       </c>
       <c r="AO31" s="20"/>
@@ -7942,7 +7947,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>21468432</v>
       </c>
@@ -8019,11 +8024,11 @@
         <v>3</v>
       </c>
       <c r="AM32" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL32-$AL$40)</f>
+        <f>(college_survey_1!$AL32-$AL$40)</f>
         <v>0.18181818181818166</v>
       </c>
       <c r="AN32" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM32*'student_survey_one Ex 3, 4'!$AM32</f>
+        <f>college_survey_1!$AM32*college_survey_1!$AM32</f>
         <v>3.305785123966936E-2</v>
       </c>
       <c r="AO32" s="20"/>
@@ -8036,7 +8041,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21468670</v>
       </c>
@@ -8113,11 +8118,11 @@
         <v>3</v>
       </c>
       <c r="AM33" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL33-$AL$40)</f>
+        <f>(college_survey_1!$AL33-$AL$40)</f>
         <v>0.18181818181818166</v>
       </c>
       <c r="AN33" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM33*'student_survey_one Ex 3, 4'!$AM33</f>
+        <f>college_survey_1!$AM33*college_survey_1!$AM33</f>
         <v>3.305785123966936E-2</v>
       </c>
       <c r="AO33" s="20"/>
@@ -8130,7 +8135,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>21466606</v>
       </c>
@@ -8207,11 +8212,11 @@
         <v>4</v>
       </c>
       <c r="AM34" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL34-$AL$40)</f>
+        <f>(college_survey_1!$AL34-$AL$40)</f>
         <v>1.1818181818181817</v>
       </c>
       <c r="AN34" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM34*'student_survey_one Ex 3, 4'!$AM34</f>
+        <f>college_survey_1!$AM34*college_survey_1!$AM34</f>
         <v>1.3966942148760326</v>
       </c>
       <c r="AO34" s="20"/>
@@ -8224,7 +8229,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>21471998</v>
       </c>
@@ -8301,11 +8306,11 @@
         <v>4</v>
       </c>
       <c r="AM35" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL35-$AL$40)</f>
+        <f>(college_survey_1!$AL35-$AL$40)</f>
         <v>1.1818181818181817</v>
       </c>
       <c r="AN35" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM35*'student_survey_one Ex 3, 4'!$AM35</f>
+        <f>college_survey_1!$AM35*college_survey_1!$AM35</f>
         <v>1.3966942148760326</v>
       </c>
       <c r="AO35" s="20"/>
@@ -8318,7 +8323,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21468172</v>
       </c>
@@ -8395,11 +8400,11 @@
         <v>5</v>
       </c>
       <c r="AM36" s="11">
-        <f ca="1">('student_survey_one Ex 3, 4'!$AL36-$AL$40)</f>
+        <f>(college_survey_1!$AL36-$AL$40)</f>
         <v>2.1818181818181817</v>
       </c>
       <c r="AN36" s="11">
-        <f ca="1">'student_survey_one Ex 3, 4'!$AM36*'student_survey_one Ex 3, 4'!$AM36</f>
+        <f>college_survey_1!$AM36*college_survey_1!$AM36</f>
         <v>4.7603305785123959</v>
       </c>
       <c r="AO36" s="20"/>
@@ -8412,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>21451555</v>
       </c>
@@ -8483,7 +8488,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21471361</v>
       </c>
@@ -8557,16 +8562,16 @@
         <v>460</v>
       </c>
       <c r="AL38" s="11">
-        <f ca="1">SUM('student_survey_one Ex 3, 4'!$AL$26:$AL$36)</f>
+        <f>SUM(college_survey_1!$AL$26:$AL$36)</f>
         <v>31</v>
       </c>
       <c r="AM38" s="12"/>
       <c r="AN38" s="11">
-        <f ca="1">AVERAGE('student_survey_one Ex 3, 4'!$AN$26:$AN$36)</f>
+        <f>AVERAGE(college_survey_1!$AN$26:$AN$36)</f>
         <v>1.4214876033057851</v>
       </c>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21489553</v>
       </c>
@@ -8635,15 +8640,15 @@
         <v>462</v>
       </c>
       <c r="AL39" s="11">
-        <f ca="1">COUNT('student_survey_one Ex 3, 4'!$AL$6:$AL$16)</f>
+        <f>COUNT(college_survey_1!$AL$6:$AL$16)</f>
         <v>11</v>
       </c>
       <c r="AN39" s="11">
-        <f ca="1">COUNT('student_survey_one Ex 3, 4'!$AN$6:$AN$16)-1</f>
+        <f>COUNT(college_survey_1!$AN$6:$AN$16)-1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:44" ht="17.25">
+    <row r="40" spans="1:44" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>21475614</v>
       </c>
@@ -8726,7 +8731,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>21393395</v>
       </c>
@@ -8804,7 +8809,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>21442706</v>
       </c>
@@ -8875,7 +8880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>21442045</v>
       </c>
@@ -8946,7 +8951,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21473205</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21363617</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21475884</v>
       </c>
@@ -9159,7 +9164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>21418902</v>
       </c>
@@ -9227,7 +9232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>21468984</v>
       </c>
@@ -9298,7 +9303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21467298</v>
       </c>
@@ -9369,7 +9374,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>21363679</v>
       </c>
@@ -9440,7 +9445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21481743</v>
       </c>
@@ -9511,7 +9516,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>21468737</v>
       </c>
@@ -9582,7 +9587,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>21442494</v>
       </c>
@@ -9653,7 +9658,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>21467805</v>
       </c>
@@ -9724,7 +9729,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>21427275</v>
       </c>
@@ -9798,7 +9803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>21427440</v>
       </c>
@@ -9872,7 +9877,7 @@
         <v>21.786999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21473133</v>
       </c>
@@ -9946,7 +9951,7 @@
         <v>5.5556999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>21483617</v>
       </c>
@@ -10017,7 +10022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>21466992</v>
       </c>
@@ -10092,7 +10097,7 @@
         <v>6.6981658476879602</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>21467119</v>
       </c>
@@ -10163,7 +10168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>21449529</v>
       </c>
@@ -10234,7 +10239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>21489051</v>
       </c>
@@ -10302,7 +10307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>21466374</v>
       </c>
@@ -10373,7 +10378,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>21466865</v>
       </c>
@@ -10444,7 +10449,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>21441574</v>
       </c>
@@ -10515,7 +10520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>21421156</v>
       </c>
@@ -10586,7 +10591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>21475882</v>
       </c>
@@ -10643,7 +10648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>21467711</v>
       </c>
@@ -10714,7 +10719,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>21467864</v>
       </c>
@@ -10785,7 +10790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>21482282</v>
       </c>
@@ -10853,7 +10858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>21466849</v>
       </c>
@@ -10924,7 +10929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>21483506</v>
       </c>
@@ -10995,7 +11000,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>21495506</v>
       </c>
@@ -11066,7 +11071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>21483764</v>
       </c>
@@ -11137,7 +11142,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21468528</v>
       </c>
@@ -11200,7 +11205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21466331</v>
       </c>
@@ -11269,7 +11274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21423025</v>
       </c>
@@ -11338,7 +11343,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>21449545</v>
       </c>
@@ -11407,7 +11412,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>21477004</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>21479232</v>
       </c>
@@ -11546,7 +11551,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>21446469</v>
       </c>
@@ -11617,7 +11622,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21481009</v>
       </c>
@@ -11682,7 +11687,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>21363755</v>
       </c>
@@ -11753,7 +11758,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21449567</v>
       </c>
@@ -11821,7 +11826,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21467739</v>
       </c>
@@ -11892,7 +11897,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>21449542</v>
       </c>
@@ -11963,7 +11968,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>21442153</v>
       </c>
@@ -12034,7 +12039,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>21394133</v>
       </c>
@@ -12105,7 +12110,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>21464473</v>
       </c>
@@ -12176,7 +12181,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>21461189</v>
       </c>
@@ -12247,7 +12252,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>21479139</v>
       </c>
@@ -12318,7 +12323,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21467787</v>
       </c>
@@ -12389,7 +12394,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>21450542</v>
       </c>
@@ -12460,7 +12465,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>21497632</v>
       </c>
@@ -12531,7 +12536,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>21419517</v>
       </c>
@@ -12602,7 +12607,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>21399526</v>
       </c>
@@ -12673,7 +12678,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>21450550</v>
       </c>
@@ -12744,7 +12749,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>21481269</v>
       </c>
@@ -12815,7 +12820,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21468585</v>
       </c>
@@ -12886,7 +12891,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>21466327</v>
       </c>
@@ -12960,7 +12965,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>21466378</v>
       </c>
@@ -13034,7 +13039,7 @@
         <v>54.781999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>21514526</v>
       </c>
@@ -13108,7 +13113,7 @@
         <v>135.28</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>21464725</v>
       </c>
@@ -13176,7 +13181,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>21499045</v>
       </c>
@@ -13251,7 +13256,7 @@
         <v>12.974704316972206</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>21420677</v>
       </c>
@@ -13322,7 +13327,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21457029</v>
       </c>
@@ -13393,7 +13398,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21477745</v>
       </c>
@@ -13464,7 +13469,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>21423523</v>
       </c>
@@ -13535,7 +13540,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>21442551</v>
       </c>
@@ -13606,7 +13611,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>21466480</v>
       </c>
@@ -13677,7 +13682,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>21422209</v>
       </c>
@@ -13745,7 +13750,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21425787</v>
       </c>
@@ -13816,7 +13821,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>21467220</v>
       </c>
@@ -13887,7 +13892,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>21478869</v>
       </c>
@@ -13958,7 +13963,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>21466874</v>
       </c>
@@ -14026,7 +14031,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>21500793</v>
       </c>
@@ -14097,7 +14102,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>21514432</v>
       </c>
@@ -14165,7 +14170,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>21491771</v>
       </c>
@@ -14236,7 +14241,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>21455059</v>
       </c>
@@ -14307,7 +14312,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>21470686</v>
       </c>
@@ -14378,7 +14383,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>21467505</v>
       </c>
@@ -14449,7 +14454,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>21473592</v>
       </c>
@@ -14520,7 +14525,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>21483825</v>
       </c>
@@ -14591,7 +14596,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>21418438</v>
       </c>
@@ -14662,7 +14667,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21466489</v>
       </c>
@@ -14733,7 +14738,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>21455894</v>
       </c>
@@ -14804,7 +14809,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>21466705</v>
       </c>
@@ -14875,7 +14880,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>21468786</v>
       </c>
@@ -14946,7 +14951,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="129" spans="1:44">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>21468924</v>
       </c>
@@ -15017,7 +15022,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="130" spans="1:44">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>21468426</v>
       </c>
@@ -15085,7 +15090,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="131" spans="1:44">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>21468566</v>
       </c>
@@ -15156,7 +15161,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="132" spans="1:44">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>21442012</v>
       </c>
@@ -15227,7 +15232,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="133" spans="1:44">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>21442435</v>
       </c>
@@ -15298,7 +15303,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="134" spans="1:44">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>21501325</v>
       </c>
@@ -15367,7 +15372,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="135" spans="1:44">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>21415864</v>
       </c>
@@ -15438,7 +15443,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="136" spans="1:44">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>21467034</v>
       </c>
@@ -15509,7 +15514,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="137" spans="1:44">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>21449551</v>
       </c>
@@ -15580,7 +15585,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="138" spans="1:44">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>21465285</v>
       </c>
@@ -15651,7 +15656,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="139" spans="1:44">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>21442497</v>
       </c>
@@ -15722,7 +15727,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="140" spans="1:44">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>21364838</v>
       </c>
@@ -15796,7 +15801,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="141" spans="1:44">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>21466407</v>
       </c>
@@ -15870,7 +15875,7 @@
         <v>37.71</v>
       </c>
     </row>
-    <row r="142" spans="1:44">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>21481320</v>
       </c>
@@ -15944,7 +15949,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:44">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>21466883</v>
       </c>
@@ -16012,7 +16017,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="144" spans="1:44">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>21508085</v>
       </c>
@@ -16087,7 +16092,7 @@
         <v>2.4994979919678713</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>21418645</v>
       </c>
@@ -16158,7 +16163,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>21468829</v>
       </c>
@@ -16229,7 +16234,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>21425259</v>
       </c>
@@ -16300,7 +16305,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>21423130</v>
       </c>
@@ -16371,7 +16376,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>21442079</v>
       </c>
@@ -16442,7 +16447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>21466442</v>
       </c>
@@ -16510,7 +16515,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>21427010</v>
       </c>
@@ -16578,7 +16583,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>21467475</v>
       </c>
@@ -16649,7 +16654,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>21473301</v>
       </c>
@@ -16720,7 +16725,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>21516638</v>
       </c>
@@ -16791,7 +16796,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>21468655</v>
       </c>
@@ -16862,7 +16867,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>21478731</v>
       </c>
@@ -16933,7 +16938,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>21467305</v>
       </c>
@@ -17001,7 +17006,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>21473855</v>
       </c>
@@ -17072,7 +17077,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>21478269</v>
       </c>
@@ -17143,7 +17148,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>21466642</v>
       </c>
@@ -17214,7 +17219,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>21422044</v>
       </c>
@@ -17285,7 +17290,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>21422307</v>
       </c>
@@ -17356,7 +17361,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>21469218</v>
       </c>
@@ -17427,7 +17432,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>21467676</v>
       </c>
@@ -17498,7 +17503,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>21466903</v>
       </c>
@@ -17569,7 +17574,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>21452686</v>
       </c>
@@ -17640,7 +17645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>21467886</v>
       </c>
@@ -17711,7 +17716,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>21441564</v>
       </c>
@@ -17776,7 +17781,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>21477686</v>
       </c>
@@ -17847,7 +17852,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>21386273</v>
       </c>
@@ -17918,7 +17923,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>21468134</v>
       </c>
@@ -17983,7 +17988,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>21468439</v>
       </c>
@@ -18054,7 +18059,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>21466714</v>
       </c>
@@ -18125,7 +18130,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>21422223</v>
       </c>
@@ -18196,7 +18201,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>21441810</v>
       </c>
@@ -18267,7 +18272,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>21456925</v>
       </c>
@@ -18338,7 +18343,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="177" spans="1:44">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>21468449</v>
       </c>
@@ -18409,7 +18414,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="178" spans="1:44">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>21449552</v>
       </c>
@@ -18480,7 +18485,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="179" spans="1:44">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>21468530</v>
       </c>
@@ -18549,7 +18554,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="180" spans="1:44">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>21416887</v>
       </c>
@@ -18615,7 +18620,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="181" spans="1:44">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21467152</v>
       </c>
@@ -18684,7 +18689,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="182" spans="1:44">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>21424910</v>
       </c>
@@ -18755,7 +18760,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="183" spans="1:44">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>21446153</v>
       </c>
@@ -18826,7 +18831,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="184" spans="1:44">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>21475830</v>
       </c>
@@ -18897,7 +18902,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="185" spans="1:44">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>21422182</v>
       </c>
@@ -18968,7 +18973,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="186" spans="1:44">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>21442467</v>
       </c>
@@ -19039,7 +19044,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="187" spans="1:44">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>21412253</v>
       </c>
@@ -19110,7 +19115,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="188" spans="1:44">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>21470281</v>
       </c>
@@ -19181,7 +19186,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="189" spans="1:44">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>21418655</v>
       </c>
@@ -19255,7 +19260,7 @@
         <v>3.343</v>
       </c>
     </row>
-    <row r="190" spans="1:44">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>21468831</v>
       </c>
@@ -19329,7 +19334,7 @@
         <v>0.50829999999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:44">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>21470452</v>
       </c>
@@ -19400,7 +19405,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="192" spans="1:44">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>21463316</v>
       </c>
@@ -19475,7 +19480,7 @@
         <v>1.095809561282707</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>21468409</v>
       </c>
@@ -19546,7 +19551,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>21418434</v>
       </c>
@@ -19617,7 +19622,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>21456384</v>
       </c>
@@ -19688,7 +19693,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>21468922</v>
       </c>
@@ -19759,7 +19764,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>21470645</v>
       </c>
@@ -19830,7 +19835,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>21422497</v>
       </c>
@@ -19901,7 +19906,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>21469070</v>
       </c>
@@ -19972,7 +19977,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>21514807</v>
       </c>
@@ -20043,7 +20048,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>21475652</v>
       </c>
@@ -20114,7 +20119,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>21481527</v>
       </c>
@@ -20185,7 +20190,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>21442024</v>
       </c>
@@ -20256,7 +20261,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>21456383</v>
       </c>
@@ -20327,7 +20332,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>21484756</v>
       </c>
@@ -20396,7 +20401,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>21481794</v>
       </c>
@@ -20465,7 +20470,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>21449541</v>
       </c>
@@ -20536,7 +20541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>21481351</v>
       </c>
@@ -20607,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>21469072</v>
       </c>
@@ -20678,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>21442004</v>
       </c>
@@ -20749,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>21474461</v>
       </c>
@@ -20820,7 +20825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>21449540</v>
       </c>
@@ -20888,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>21468486</v>
       </c>
@@ -20957,7 +20962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>21463597</v>
       </c>
@@ -21028,7 +21033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>21478782</v>
       </c>
@@ -21096,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>21468994</v>
       </c>
@@ -21167,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>21494143</v>
       </c>
@@ -21238,7 +21243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>21416524</v>
       </c>
@@ -21309,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>21421478</v>
       </c>
@@ -21378,7 +21383,7 @@
       </c>
       <c r="W219" s="23"/>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>21484040</v>
       </c>
@@ -21435,7 +21440,7 @@
       </c>
       <c r="W220" s="23"/>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>21418719</v>
       </c>
@@ -21492,7 +21497,7 @@
       </c>
       <c r="W221" s="23"/>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>21421480</v>
       </c>
@@ -21546,7 +21551,7 @@
       </c>
       <c r="W222" s="23"/>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>21473407</v>
       </c>
@@ -21603,7 +21608,7 @@
       </c>
       <c r="W223" s="23"/>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>21468552</v>
       </c>
@@ -21672,7 +21677,7 @@
       </c>
       <c r="W224" s="23"/>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>21470491</v>
       </c>
@@ -21729,7 +21734,7 @@
       </c>
       <c r="W225" s="23"/>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>21495072</v>
       </c>
@@ -21798,7 +21803,7 @@
       </c>
       <c r="W226" s="23"/>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>21442048</v>
       </c>
@@ -21867,7 +21872,7 @@
       </c>
       <c r="W227" s="23"/>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>21468187</v>
       </c>
@@ -21936,7 +21941,7 @@
       </c>
       <c r="W228" s="23"/>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>21468412</v>
       </c>
@@ -21993,7 +21998,7 @@
       </c>
       <c r="W229" s="23"/>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>21421751</v>
       </c>
@@ -22050,7 +22055,7 @@
       </c>
       <c r="W230" s="23"/>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>21467054</v>
       </c>
@@ -22119,7 +22124,7 @@
       </c>
       <c r="W231" s="23"/>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>21470540</v>
       </c>
@@ -22163,7 +22168,7 @@
       <c r="R232" s="21"/>
       <c r="W232" s="23"/>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>21421721</v>
       </c>
@@ -22207,7 +22212,7 @@
       <c r="R233" s="21"/>
       <c r="W233" s="23"/>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>21467660</v>
       </c>
@@ -22251,7 +22256,7 @@
       <c r="R234" s="21"/>
       <c r="W234" s="23"/>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>21466864</v>
       </c>
@@ -22298,7 +22303,7 @@
       <c r="R235" s="21"/>
       <c r="W235" s="23"/>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>21467142</v>
       </c>
@@ -22345,7 +22350,7 @@
       <c r="R236" s="21"/>
       <c r="W236" s="23"/>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>21468959</v>
       </c>
@@ -22392,7 +22397,7 @@
       <c r="R237" s="21"/>
       <c r="W237" s="23"/>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>21422580</v>
       </c>
@@ -22447,7 +22452,7 @@
       <c r="R238" s="21"/>
       <c r="W238" s="23"/>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>21430837</v>
       </c>
@@ -22499,7 +22504,7 @@
       <c r="R239" s="21"/>
       <c r="W239" s="23"/>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>21441438</v>
       </c>
@@ -22546,7 +22551,7 @@
       <c r="R240" s="21"/>
       <c r="W240" s="23"/>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>21441957</v>
       </c>
@@ -22593,7 +22598,7 @@
       <c r="R241" s="21"/>
       <c r="W241" s="23"/>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>21469250</v>
       </c>
@@ -22645,7 +22650,7 @@
       <c r="R242" s="21"/>
       <c r="W242" s="23"/>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>21423682</v>
       </c>
@@ -22700,7 +22705,7 @@
       <c r="R243" s="21"/>
       <c r="W243" s="23"/>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>21441995</v>
       </c>
@@ -22755,7 +22760,7 @@
       <c r="R244" s="21"/>
       <c r="W244" s="23"/>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L245"/>
       <c r="N245"/>
       <c r="O245"/>
@@ -22781,14 +22786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="3" width="17.5703125" customWidth="1"/>
@@ -22797,7 +22802,7 @@
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>454</v>
       </c>
@@ -22823,7 +22828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -22849,7 +22854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -22875,7 +22880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -22901,7 +22906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -22927,7 +22932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -22953,7 +22958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -22979,7 +22984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -23005,7 +23010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -23031,7 +23036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -23057,7 +23062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -23083,7 +23088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -23109,7 +23114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -23135,7 +23140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -23161,7 +23166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -23187,7 +23192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -23213,7 +23218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -23239,7 +23244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -23265,7 +23270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -23291,7 +23296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -23317,7 +23322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -23343,7 +23348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -23369,7 +23374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -23395,7 +23400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -23421,7 +23426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -23447,7 +23452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -23473,7 +23478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -23499,7 +23504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -23525,7 +23530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -23551,7 +23556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -23577,7 +23582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -23603,7 +23608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -23629,7 +23634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -23655,7 +23660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -23681,7 +23686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -23707,7 +23712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -23733,7 +23738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -23759,7 +23764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -23785,7 +23790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -23811,7 +23816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -23837,7 +23842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -23863,7 +23868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -23889,7 +23894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -23915,7 +23920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -23941,7 +23946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -23967,7 +23972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -23993,7 +23998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -24019,7 +24024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -24045,7 +24050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -24071,7 +24076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -24097,7 +24102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -24123,7 +24128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -24149,7 +24154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -24175,7 +24180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -24201,7 +24206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -24227,7 +24232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -24253,7 +24258,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -24279,7 +24284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -24305,7 +24310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -24331,7 +24336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -24357,7 +24362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -24383,7 +24388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -24409,7 +24414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -24435,7 +24440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>168</v>
       </c>
@@ -24461,7 +24466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>169</v>
       </c>
@@ -24487,7 +24492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>170</v>
       </c>
@@ -24513,7 +24518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -24539,7 +24544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>178</v>
       </c>
@@ -24565,7 +24570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>179</v>
       </c>
@@ -24591,7 +24596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>180</v>
       </c>
@@ -24617,7 +24622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -24643,7 +24648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -24669,7 +24674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -24695,7 +24700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -24721,7 +24726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -24747,7 +24752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -24773,7 +24778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>198</v>
       </c>
@@ -24799,7 +24804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>200</v>
       </c>
@@ -24825,7 +24830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -24851,7 +24856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>203</v>
       </c>
@@ -24877,7 +24882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>204</v>
       </c>
@@ -24903,7 +24908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>205</v>
       </c>
@@ -24929,7 +24934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -24955,7 +24960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>210</v>
       </c>
@@ -24981,7 +24986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -25007,7 +25012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>214</v>
       </c>
@@ -25033,7 +25038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>216</v>
       </c>
@@ -25059,7 +25064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>219</v>
       </c>
@@ -25085,7 +25090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -25111,7 +25116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>226</v>
       </c>
@@ -25137,7 +25142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>229</v>
       </c>
@@ -25163,7 +25168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>230</v>
       </c>
@@ -25189,7 +25194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>232</v>
       </c>
@@ -25215,7 +25220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>235</v>
       </c>
@@ -25241,7 +25246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -25267,7 +25272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>240</v>
       </c>
@@ -25293,7 +25298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>242</v>
       </c>
@@ -25319,7 +25324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>243</v>
       </c>
@@ -25345,7 +25350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -25371,7 +25376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>250</v>
       </c>
@@ -25397,7 +25402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>251</v>
       </c>
@@ -25423,7 +25428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>252</v>
       </c>
@@ -25449,7 +25454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>253</v>
       </c>
@@ -25475,7 +25480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>257</v>
       </c>
@@ -25501,7 +25506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>258</v>
       </c>
@@ -25527,7 +25532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>262</v>
       </c>
@@ -25553,7 +25558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>263</v>
       </c>
@@ -25579,7 +25584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>264</v>
       </c>
@@ -25605,7 +25610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>265</v>
       </c>
@@ -25631,7 +25636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -25657,7 +25662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>272</v>
       </c>
@@ -25683,7 +25688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>274</v>
       </c>
@@ -25709,7 +25714,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>277</v>
       </c>
@@ -25735,7 +25740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -25761,7 +25766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>280</v>
       </c>
@@ -25787,7 +25792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>281</v>
       </c>
@@ -25813,7 +25818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>283</v>
       </c>
@@ -25839,7 +25844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>286</v>
       </c>
@@ -25865,7 +25870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>288</v>
       </c>
@@ -25891,7 +25896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -25917,7 +25922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>295</v>
       </c>
@@ -25943,7 +25948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -25969,7 +25974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>297</v>
       </c>
@@ -25995,7 +26000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>298</v>
       </c>
@@ -26021,7 +26026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>299</v>
       </c>
@@ -26047,7 +26052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>302</v>
       </c>
@@ -26073,7 +26078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>303</v>
       </c>
@@ -26099,7 +26104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>305</v>
       </c>
@@ -26125,7 +26130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>307</v>
       </c>
@@ -26151,7 +26156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>309</v>
       </c>
@@ -26177,7 +26182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>312</v>
       </c>
@@ -26203,7 +26208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>313</v>
       </c>
@@ -26229,7 +26234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>314</v>
       </c>
@@ -26255,7 +26260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>316</v>
       </c>
@@ -26281,7 +26286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>318</v>
       </c>
@@ -26307,7 +26312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>322</v>
       </c>
@@ -26333,7 +26338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>324</v>
       </c>
@@ -26359,7 +26364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>325</v>
       </c>
@@ -26385,7 +26390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>326</v>
       </c>
@@ -26411,7 +26416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>330</v>
       </c>
@@ -26437,7 +26442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>334</v>
       </c>
@@ -26463,7 +26468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>338</v>
       </c>
@@ -26489,7 +26494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>339</v>
       </c>
@@ -26515,7 +26520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>340</v>
       </c>
@@ -26541,7 +26546,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>343</v>
       </c>
@@ -26567,7 +26572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>344</v>
       </c>
@@ -26593,7 +26598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>346</v>
       </c>
@@ -26619,7 +26624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -26645,7 +26650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>348</v>
       </c>
@@ -26671,7 +26676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>350</v>
       </c>
@@ -26697,7 +26702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>353</v>
       </c>
@@ -26723,7 +26728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>354</v>
       </c>
@@ -26749,7 +26754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>356</v>
       </c>
@@ -26775,7 +26780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>359</v>
       </c>
@@ -26801,7 +26806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>361</v>
       </c>
@@ -26827,7 +26832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>363</v>
       </c>
@@ -26853,7 +26858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>364</v>
       </c>
@@ -26879,7 +26884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>365</v>
       </c>
@@ -26905,7 +26910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>369</v>
       </c>
@@ -26931,7 +26936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>372</v>
       </c>
@@ -26957,7 +26962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>373</v>
       </c>
@@ -26983,7 +26988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>375</v>
       </c>
@@ -27009,7 +27014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>378</v>
       </c>
@@ -27035,7 +27040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>382</v>
       </c>
@@ -27061,7 +27066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>385</v>
       </c>
@@ -27087,7 +27092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>386</v>
       </c>
@@ -27113,7 +27118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>387</v>
       </c>
@@ -27139,7 +27144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>388</v>
       </c>
@@ -27165,7 +27170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>391</v>
       </c>
@@ -27191,7 +27196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>392</v>
       </c>
@@ -27217,7 +27222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>393</v>
       </c>
@@ -27243,7 +27248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>397</v>
       </c>
@@ -27269,7 +27274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>400</v>
       </c>
@@ -27295,7 +27300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>401</v>
       </c>
@@ -27321,7 +27326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>402</v>
       </c>
@@ -27347,7 +27352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>407</v>
       </c>
@@ -27373,7 +27378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>408</v>
       </c>
@@ -27399,7 +27404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>409</v>
       </c>
@@ -27425,7 +27430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>414</v>
       </c>
@@ -27451,7 +27456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>416</v>
       </c>
@@ -27477,7 +27482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>417</v>
       </c>
@@ -27503,7 +27508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>418</v>
       </c>
@@ -27529,7 +27534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>419</v>
       </c>
@@ -27555,7 +27560,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>425</v>
       </c>
@@ -27581,7 +27586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>426</v>
       </c>
@@ -27607,7 +27612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>427</v>
       </c>
@@ -27633,7 +27638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>428</v>
       </c>
@@ -27659,7 +27664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>429</v>
       </c>
@@ -27685,7 +27690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>431</v>
       </c>
@@ -27711,7 +27716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>432</v>
       </c>
@@ -27737,7 +27742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>433</v>
       </c>
@@ -27763,7 +27768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>437</v>
       </c>
@@ -27789,7 +27794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>438</v>
       </c>
@@ -27815,7 +27820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>442</v>
       </c>
@@ -27841,7 +27846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>443</v>
       </c>
@@ -27867,7 +27872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>444</v>
       </c>
@@ -27893,7 +27898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>447</v>
       </c>
@@ -27919,7 +27924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>448</v>
       </c>
@@ -27945,7 +27950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>449</v>
       </c>
@@ -27971,7 +27976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>451</v>
       </c>
@@ -27997,7 +28002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>453</v>
       </c>
@@ -28023,7 +28028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F202" s="5" t="s">
         <v>423</v>
       </c>
@@ -28037,7 +28042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F203" s="6" t="s">
         <v>424</v>
       </c>
@@ -28051,7 +28056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F204" s="5" t="s">
         <v>430</v>
       </c>
@@ -28065,7 +28070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F205" s="6" t="s">
         <v>434</v>
       </c>
@@ -28079,7 +28084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F206" s="5" t="s">
         <v>435</v>
       </c>
@@ -28093,7 +28098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F207" s="6" t="s">
         <v>436</v>
       </c>
@@ -28107,7 +28112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F208" s="5" t="s">
         <v>439</v>
       </c>
@@ -28121,7 +28126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="6:9">
+    <row r="209" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F209" s="6" t="s">
         <v>440</v>
       </c>
@@ -28135,7 +28140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="6:9">
+    <row r="210" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F210" s="5" t="s">
         <v>441</v>
       </c>
@@ -28149,7 +28154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="6:9">
+    <row r="211" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F211" s="6" t="s">
         <v>445</v>
       </c>
@@ -28163,7 +28168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="6:9">
+    <row r="212" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F212" s="5" t="s">
         <v>446</v>
       </c>
@@ -28177,7 +28182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="6:9">
+    <row r="213" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F213" s="6" t="s">
         <v>450</v>
       </c>
@@ -28191,7 +28196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="6:9">
+    <row r="214" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F214" s="8" t="s">
         <v>452</v>
       </c>
@@ -28218,21 +28223,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="12" customWidth="1"/>
     <col min="10" max="16" width="12" style="2" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -28285,7 +28290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>23613374</v>
       </c>
@@ -28335,7 +28340,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23613399</v>
       </c>
@@ -28388,7 +28393,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23613431</v>
       </c>
@@ -28441,7 +28446,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23613435</v>
       </c>
@@ -28494,7 +28499,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23613437</v>
       </c>
@@ -28547,7 +28552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23613464</v>
       </c>
@@ -28582,7 +28587,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23613471</v>
       </c>
@@ -28614,7 +28619,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>23613477</v>
       </c>
@@ -28664,7 +28669,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23613479</v>
       </c>
@@ -28714,7 +28719,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23613481</v>
       </c>
@@ -28767,7 +28772,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23613486</v>
       </c>
@@ -28802,7 +28807,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23613488</v>
       </c>
@@ -28843,7 +28848,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23613495</v>
       </c>
@@ -28896,7 +28901,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23613516</v>
       </c>
@@ -28949,7 +28954,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23613525</v>
       </c>
@@ -28981,7 +28986,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23613539</v>
       </c>
@@ -29034,7 +29039,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23613544</v>
       </c>
@@ -29087,7 +29092,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23613633</v>
       </c>
@@ -29140,7 +29145,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23613633</v>
       </c>
@@ -29175,7 +29180,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23613677</v>
       </c>
@@ -29228,7 +29233,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23613681</v>
       </c>
@@ -29269,7 +29274,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23613699</v>
       </c>
@@ -29322,7 +29327,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23613741</v>
       </c>
@@ -29354,7 +29359,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23615045</v>
       </c>
@@ -29371,7 +29376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23615050</v>
       </c>
@@ -29421,7 +29426,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23615386</v>
       </c>
@@ -29474,7 +29479,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23615847</v>
       </c>
@@ -29527,7 +29532,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23615874</v>
       </c>
@@ -29577,7 +29582,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23615889</v>
       </c>
@@ -29630,7 +29635,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23615907</v>
       </c>
@@ -29683,7 +29688,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23615916</v>
       </c>
@@ -29736,7 +29741,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23615932</v>
       </c>
@@ -29789,7 +29794,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>23615942</v>
       </c>
@@ -29842,7 +29847,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>23616016</v>
       </c>
@@ -29895,7 +29900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>23616019</v>
       </c>
@@ -29948,7 +29953,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23616021</v>
       </c>
@@ -29971,7 +29976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>23616061</v>
       </c>
@@ -30024,7 +30029,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>23616107</v>
       </c>
@@ -30077,7 +30082,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>23616186</v>
       </c>
@@ -30130,7 +30135,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>23616197</v>
       </c>
@@ -30183,7 +30188,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>23616769</v>
       </c>
@@ -30236,7 +30241,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>23616883</v>
       </c>
@@ -30289,7 +30294,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>23617219</v>
       </c>
@@ -30342,7 +30347,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>23617357</v>
       </c>
@@ -30395,7 +30400,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>23619433</v>
       </c>
@@ -30448,7 +30453,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>23619436</v>
       </c>
@@ -30480,7 +30485,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23619438</v>
       </c>
@@ -30524,7 +30529,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23619448</v>
       </c>
@@ -30562,7 +30567,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>23619927</v>
       </c>
@@ -30615,7 +30620,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>23619935</v>
       </c>
@@ -30668,7 +30673,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>23619967</v>
       </c>
@@ -30721,7 +30726,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23619979</v>
       </c>
@@ -30756,7 +30761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>23620068</v>
       </c>
@@ -30809,7 +30814,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>23620271</v>
       </c>
@@ -30862,7 +30867,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>23620300</v>
       </c>
@@ -30915,7 +30920,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>23620395</v>
       </c>
@@ -30968,7 +30973,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>23622822</v>
       </c>
@@ -31018,7 +31023,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23622830</v>
       </c>
@@ -31068,7 +31073,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>23622831</v>
       </c>
@@ -31121,7 +31126,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>23622844</v>
       </c>
@@ -31174,7 +31179,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>23622850</v>
       </c>
@@ -31227,7 +31232,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>23622881</v>
       </c>
@@ -31280,7 +31285,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>23622888</v>
       </c>
@@ -31333,7 +31338,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>23622911</v>
       </c>
@@ -31365,7 +31370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>23622916</v>
       </c>
@@ -31418,7 +31423,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>23622949</v>
       </c>
@@ -31468,7 +31473,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>23622974</v>
       </c>
@@ -31521,7 +31526,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>23622979</v>
       </c>
@@ -31574,7 +31579,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>23623076</v>
       </c>
@@ -31627,7 +31632,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>23623221</v>
       </c>
@@ -31680,7 +31685,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>23623291</v>
       </c>
@@ -31733,7 +31738,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>23623542</v>
       </c>
@@ -31786,7 +31791,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>23623565</v>
       </c>
@@ -31830,7 +31835,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>23623762</v>
       </c>
@@ -31880,7 +31885,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>23623763</v>
       </c>
@@ -31933,7 +31938,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>23623944</v>
       </c>
@@ -31986,7 +31991,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>23624125</v>
       </c>
@@ -32039,7 +32044,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>23624167</v>
       </c>
@@ -32092,7 +32097,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>23624174</v>
       </c>
@@ -32145,7 +32150,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23624177</v>
       </c>
@@ -32186,7 +32191,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>23624212</v>
       </c>
@@ -32239,7 +32244,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>23625645</v>
       </c>
@@ -32292,7 +32297,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>23626277</v>
       </c>
@@ -32345,7 +32350,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>23626359</v>
       </c>
@@ -32398,7 +32403,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>23626363</v>
       </c>
@@ -32451,7 +32456,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>23626382</v>
       </c>
@@ -32504,7 +32509,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>23626723</v>
       </c>
@@ -32557,7 +32562,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>23626740</v>
       </c>
@@ -32610,7 +32615,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>23626742</v>
       </c>
@@ -32642,7 +32647,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23627348</v>
       </c>
@@ -32695,7 +32700,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>23627628</v>
       </c>
@@ -32748,7 +32753,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>23627898</v>
       </c>
@@ -32801,7 +32806,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>23628087</v>
       </c>
@@ -32854,7 +32859,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>23628231</v>
       </c>
@@ -32907,7 +32912,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>23630403</v>
       </c>
@@ -32960,7 +32965,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>23630476</v>
       </c>
@@ -33013,7 +33018,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>23631238</v>
       </c>
@@ -33066,7 +33071,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23632930</v>
       </c>
@@ -33119,7 +33124,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>23633258</v>
       </c>
@@ -33172,7 +33177,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>23633533</v>
       </c>
@@ -33225,7 +33230,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>23635361</v>
       </c>
@@ -33278,7 +33283,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23637112</v>
       </c>
@@ -33331,7 +33336,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>23637832</v>
       </c>
@@ -33372,7 +33377,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>23641342</v>
       </c>
@@ -33425,7 +33430,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>23641466</v>
       </c>
@@ -33469,7 +33474,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>23641466</v>
       </c>
@@ -33495,7 +33500,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>23643124</v>
       </c>
@@ -33548,7 +33553,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>23643782</v>
       </c>
@@ -33601,7 +33606,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>23647329</v>
       </c>
@@ -33654,7 +33659,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>23648276</v>
       </c>
@@ -33707,7 +33712,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>23650342</v>
       </c>
@@ -33757,7 +33762,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23653416</v>
       </c>
@@ -33810,7 +33815,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23653421</v>
       </c>
@@ -33863,7 +33868,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>23653427</v>
       </c>
@@ -33916,7 +33921,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>23653511</v>
       </c>
@@ -33969,7 +33974,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23653551</v>
       </c>
@@ -34022,7 +34027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>23653726</v>
       </c>
@@ -34075,7 +34080,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>23655819</v>
       </c>
@@ -34128,7 +34133,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>23657014</v>
       </c>
@@ -34181,7 +34186,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>23657017</v>
       </c>
@@ -34234,7 +34239,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>23657081</v>
       </c>
@@ -34287,7 +34292,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23657086</v>
       </c>
@@ -34340,7 +34345,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>23657115</v>
       </c>
@@ -34387,7 +34392,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>23657117</v>
       </c>
@@ -34440,7 +34445,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>23657118</v>
       </c>
@@ -34493,7 +34498,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>23657125</v>
       </c>
@@ -34540,7 +34545,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>23657126</v>
       </c>
@@ -34593,7 +34598,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>23657132</v>
       </c>
@@ -34646,7 +34651,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>23657136</v>
       </c>
@@ -34699,7 +34704,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>23657222</v>
       </c>
@@ -34752,7 +34757,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>23657279</v>
       </c>
@@ -34805,7 +34810,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>23657286</v>
       </c>
@@ -34840,7 +34845,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>23657364</v>
       </c>
@@ -34893,7 +34898,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>23658560</v>
       </c>
@@ -34946,7 +34951,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>23660101</v>
       </c>
@@ -34999,7 +35004,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>23660166</v>
       </c>
@@ -35052,7 +35057,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>23661120</v>
       </c>
@@ -35105,7 +35110,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>23661324</v>
       </c>
